--- a/data/instances/benchmark/i640/i640 - GREEDY.xlsx
+++ b/data/instances/benchmark/i640/i640 - GREEDY.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joyce\Documents\PET COPPE UFRJ\CPS 783\Trabalho CPS 783\prize-collecting-steiner-tree-main\notebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joyce\Documents\PET COPPE UFRJ\CPS 783\Trabalho CPS 783\prize-collecting-steiner-tree-main\data\results - GREEDY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A74DC8A-98F7-4860-956E-62C429E3DA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC741FF6-6CA3-4FB3-AC37-175559769B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t>filename</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -145,12 +148,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -494,22 +500,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -568,10 +575,10 @@
         <v>9</v>
       </c>
       <c r="I2" s="1">
-        <v>7759</v>
+        <v>7917</v>
       </c>
       <c r="J2" s="1">
-        <v>6.6014528274536133E-2</v>
+        <v>7.1292638778686523E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -579,10 +586,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>640</v>
@@ -591,19 +598,19 @@
         <v>960</v>
       </c>
       <c r="F3" s="1">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="G3" s="1">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="H3" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1">
-        <v>7759</v>
+        <v>21820</v>
       </c>
       <c r="J3" s="1">
-        <v>6.6314220428466797E-2</v>
+        <v>0.66915106773376465</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -611,10 +618,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>640</v>
@@ -623,19 +630,19 @@
         <v>960</v>
       </c>
       <c r="F4" s="1">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="G4" s="1">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="H4" s="1">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="I4" s="1">
-        <v>7759</v>
+        <v>38551</v>
       </c>
       <c r="J4" s="1">
-        <v>7.2947263717651367E-2</v>
+        <v>2.771483421325684</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -643,10 +650,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>640</v>
@@ -655,19 +662,19 @@
         <v>960</v>
       </c>
       <c r="F5" s="1">
-        <v>516</v>
+        <v>544</v>
       </c>
       <c r="G5" s="1">
-        <v>836</v>
+        <v>864</v>
       </c>
       <c r="H5" s="1">
-        <v>9</v>
+        <v>159</v>
       </c>
       <c r="I5" s="1">
-        <v>7759</v>
+        <v>77686</v>
       </c>
       <c r="J5" s="1">
-        <v>5.6964874267578118E-2</v>
+        <v>47.603498458862298</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -675,10 +682,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>640</v>
@@ -687,659 +694,19 @@
         <v>960</v>
       </c>
       <c r="F6" s="1">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="G6" s="1">
-        <v>836</v>
+        <v>855</v>
       </c>
       <c r="H6" s="1">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="I6" s="1">
-        <v>7759</v>
+        <v>76507</v>
       </c>
       <c r="J6" s="1">
-        <v>5.398869514465332E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>640</v>
-      </c>
-      <c r="E7" s="1">
-        <v>960</v>
-      </c>
-      <c r="F7" s="1">
-        <v>506</v>
-      </c>
-      <c r="G7" s="1">
-        <v>826</v>
-      </c>
-      <c r="H7" s="1">
-        <v>25</v>
-      </c>
-      <c r="I7" s="1">
-        <v>19657</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.61160564422607422</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>640</v>
-      </c>
-      <c r="E8" s="1">
-        <v>960</v>
-      </c>
-      <c r="F8" s="1">
-        <v>506</v>
-      </c>
-      <c r="G8" s="1">
-        <v>826</v>
-      </c>
-      <c r="H8" s="1">
-        <v>25</v>
-      </c>
-      <c r="I8" s="1">
-        <v>19657</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.55803775787353516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>640</v>
-      </c>
-      <c r="E9" s="1">
-        <v>960</v>
-      </c>
-      <c r="F9" s="1">
-        <v>506</v>
-      </c>
-      <c r="G9" s="1">
-        <v>826</v>
-      </c>
-      <c r="H9" s="1">
-        <v>25</v>
-      </c>
-      <c r="I9" s="1">
-        <v>19657</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.4516899585723877</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1">
-        <v>640</v>
-      </c>
-      <c r="E10" s="1">
-        <v>960</v>
-      </c>
-      <c r="F10" s="1">
-        <v>506</v>
-      </c>
-      <c r="G10" s="1">
-        <v>826</v>
-      </c>
-      <c r="H10" s="1">
-        <v>25</v>
-      </c>
-      <c r="I10" s="1">
-        <v>19657</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.47119998931884771</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>640</v>
-      </c>
-      <c r="E11" s="1">
-        <v>960</v>
-      </c>
-      <c r="F11" s="1">
-        <v>506</v>
-      </c>
-      <c r="G11" s="1">
-        <v>826</v>
-      </c>
-      <c r="H11" s="1">
-        <v>25</v>
-      </c>
-      <c r="I11" s="1">
-        <v>19657</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.48075962066650391</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>640</v>
-      </c>
-      <c r="E12" s="1">
-        <v>960</v>
-      </c>
-      <c r="F12" s="1">
-        <v>521</v>
-      </c>
-      <c r="G12" s="1">
-        <v>841</v>
-      </c>
-      <c r="H12" s="1">
-        <v>50</v>
-      </c>
-      <c r="I12" s="1">
-        <v>29155</v>
-      </c>
-      <c r="J12" s="1">
-        <v>2.4571855068206792</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>640</v>
-      </c>
-      <c r="E13" s="1">
-        <v>960</v>
-      </c>
-      <c r="F13" s="1">
-        <v>521</v>
-      </c>
-      <c r="G13" s="1">
-        <v>841</v>
-      </c>
-      <c r="H13" s="1">
-        <v>50</v>
-      </c>
-      <c r="I13" s="1">
-        <v>29155</v>
-      </c>
-      <c r="J13" s="1">
-        <v>2.9662590026855469</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1">
-        <v>640</v>
-      </c>
-      <c r="E14" s="1">
-        <v>960</v>
-      </c>
-      <c r="F14" s="1">
-        <v>521</v>
-      </c>
-      <c r="G14" s="1">
-        <v>841</v>
-      </c>
-      <c r="H14" s="1">
-        <v>50</v>
-      </c>
-      <c r="I14" s="1">
-        <v>29155</v>
-      </c>
-      <c r="J14" s="1">
-        <v>2.4604299068450932</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1">
-        <v>640</v>
-      </c>
-      <c r="E15" s="1">
-        <v>960</v>
-      </c>
-      <c r="F15" s="1">
-        <v>521</v>
-      </c>
-      <c r="G15" s="1">
-        <v>841</v>
-      </c>
-      <c r="H15" s="1">
-        <v>50</v>
-      </c>
-      <c r="I15" s="1">
-        <v>29155</v>
-      </c>
-      <c r="J15" s="1">
-        <v>2.414413690567017</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1">
-        <v>640</v>
-      </c>
-      <c r="E16" s="1">
-        <v>960</v>
-      </c>
-      <c r="F16" s="1">
-        <v>521</v>
-      </c>
-      <c r="G16" s="1">
-        <v>841</v>
-      </c>
-      <c r="H16" s="1">
-        <v>50</v>
-      </c>
-      <c r="I16" s="1">
-        <v>29155</v>
-      </c>
-      <c r="J16" s="1">
-        <v>2.8524069786071782</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>640</v>
-      </c>
-      <c r="E17" s="1">
-        <v>960</v>
-      </c>
-      <c r="F17" s="1">
-        <v>544</v>
-      </c>
-      <c r="G17" s="1">
-        <v>864</v>
-      </c>
-      <c r="H17" s="1">
-        <v>159</v>
-      </c>
-      <c r="I17" s="1">
-        <v>67883</v>
-      </c>
-      <c r="J17" s="1">
-        <v>44.361951589584351</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>640</v>
-      </c>
-      <c r="E18" s="1">
-        <v>960</v>
-      </c>
-      <c r="F18" s="1">
-        <v>544</v>
-      </c>
-      <c r="G18" s="1">
-        <v>864</v>
-      </c>
-      <c r="H18" s="1">
-        <v>159</v>
-      </c>
-      <c r="I18" s="1">
-        <v>67883</v>
-      </c>
-      <c r="J18" s="1">
-        <v>47.724409103393548</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1">
-        <v>640</v>
-      </c>
-      <c r="E19" s="1">
-        <v>960</v>
-      </c>
-      <c r="F19" s="1">
-        <v>544</v>
-      </c>
-      <c r="G19" s="1">
-        <v>864</v>
-      </c>
-      <c r="H19" s="1">
-        <v>159</v>
-      </c>
-      <c r="I19" s="1">
-        <v>67883</v>
-      </c>
-      <c r="J19" s="1">
-        <v>39.922655820846558</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1">
-        <v>4</v>
-      </c>
-      <c r="D20" s="1">
-        <v>640</v>
-      </c>
-      <c r="E20" s="1">
-        <v>960</v>
-      </c>
-      <c r="F20" s="1">
-        <v>544</v>
-      </c>
-      <c r="G20" s="1">
-        <v>864</v>
-      </c>
-      <c r="H20" s="1">
-        <v>159</v>
-      </c>
-      <c r="I20" s="1">
-        <v>67883</v>
-      </c>
-      <c r="J20" s="1">
-        <v>49.12162184715271</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1">
-        <v>5</v>
-      </c>
-      <c r="D21" s="1">
-        <v>640</v>
-      </c>
-      <c r="E21" s="1">
-        <v>960</v>
-      </c>
-      <c r="F21" s="1">
-        <v>544</v>
-      </c>
-      <c r="G21" s="1">
-        <v>864</v>
-      </c>
-      <c r="H21" s="1">
-        <v>159</v>
-      </c>
-      <c r="I21" s="1">
-        <v>67883</v>
-      </c>
-      <c r="J21" s="1">
-        <v>47.915366649627693</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <v>640</v>
-      </c>
-      <c r="E22" s="1">
-        <v>960</v>
-      </c>
-      <c r="F22" s="1">
-        <v>535</v>
-      </c>
-      <c r="G22" s="1">
-        <v>855</v>
-      </c>
-      <c r="H22" s="1">
-        <v>160</v>
-      </c>
-      <c r="I22" s="1">
-        <v>65268</v>
-      </c>
-      <c r="J22" s="1">
-        <v>60.773399591445923</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1">
-        <v>640</v>
-      </c>
-      <c r="E23" s="1">
-        <v>960</v>
-      </c>
-      <c r="F23" s="1">
-        <v>535</v>
-      </c>
-      <c r="G23" s="1">
-        <v>855</v>
-      </c>
-      <c r="H23" s="1">
-        <v>160</v>
-      </c>
-      <c r="I23" s="1">
-        <v>65268</v>
-      </c>
-      <c r="J23" s="1">
-        <v>63.44925856590271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="1">
-        <v>3</v>
-      </c>
-      <c r="D24" s="1">
-        <v>640</v>
-      </c>
-      <c r="E24" s="1">
-        <v>960</v>
-      </c>
-      <c r="F24" s="1">
-        <v>535</v>
-      </c>
-      <c r="G24" s="1">
-        <v>855</v>
-      </c>
-      <c r="H24" s="1">
-        <v>160</v>
-      </c>
-      <c r="I24" s="1">
-        <v>65268</v>
-      </c>
-      <c r="J24" s="1">
-        <v>50.793381929397583</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="1">
-        <v>4</v>
-      </c>
-      <c r="D25" s="1">
-        <v>640</v>
-      </c>
-      <c r="E25" s="1">
-        <v>960</v>
-      </c>
-      <c r="F25" s="1">
-        <v>535</v>
-      </c>
-      <c r="G25" s="1">
-        <v>855</v>
-      </c>
-      <c r="H25" s="1">
-        <v>160</v>
-      </c>
-      <c r="I25" s="1">
-        <v>65268</v>
-      </c>
-      <c r="J25" s="1">
-        <v>47.816358327865601</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="1">
-        <v>5</v>
-      </c>
-      <c r="D26" s="1">
-        <v>640</v>
-      </c>
-      <c r="E26" s="1">
-        <v>960</v>
-      </c>
-      <c r="F26" s="1">
-        <v>535</v>
-      </c>
-      <c r="G26" s="1">
-        <v>855</v>
-      </c>
-      <c r="H26" s="1">
-        <v>160</v>
-      </c>
-      <c r="I26" s="1">
-        <v>65268</v>
-      </c>
-      <c r="J26" s="1">
-        <v>49.416833877563477</v>
+        <v>62.122678756713867</v>
       </c>
     </row>
   </sheetData>
@@ -1357,7 +724,9 @@
   <cols>
     <col min="1" max="1" width="42.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.5546875" bestFit="1" customWidth="1"/>
@@ -1366,26 +735,26 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -1464,52 +833,52 @@
         <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>6.3245916366577143E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>7.6867333234009504E-3</v>
+        <v>7.1292638778686523E-2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E4" s="1">
-        <v>5.398869514465332E-2</v>
+        <v>7.1292638778686523E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>5.6964874267578118E-2</v>
+        <v>7.1292638778686523E-2</v>
       </c>
       <c r="G4" s="1">
-        <v>6.6014528274536133E-2</v>
+        <v>7.1292638778686523E-2</v>
       </c>
       <c r="H4" s="1">
-        <v>6.6314220428466797E-2</v>
+        <v>7.1292638778686523E-2</v>
       </c>
       <c r="I4" s="1">
-        <v>7.2947263717651367E-2</v>
+        <v>7.1292638778686523E-2</v>
       </c>
       <c r="J4" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>7759</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
+        <v>7917</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="M4" s="1">
-        <v>7759</v>
+        <v>7917</v>
       </c>
       <c r="N4" s="1">
-        <v>7759</v>
+        <v>7917</v>
       </c>
       <c r="O4" s="1">
-        <v>7759</v>
+        <v>7917</v>
       </c>
       <c r="P4" s="1">
-        <v>7759</v>
+        <v>7917</v>
       </c>
       <c r="Q4" s="1">
-        <v>7759</v>
+        <v>7917</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1517,52 +886,52 @@
         <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>0.51465859413146975</v>
-      </c>
-      <c r="D5" s="1">
-        <v>6.7607917745293122E-2</v>
+        <v>0.66915106773376465</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E5" s="1">
-        <v>0.4516899585723877</v>
+        <v>0.66915106773376465</v>
       </c>
       <c r="F5" s="1">
-        <v>0.47119998931884771</v>
+        <v>0.66915106773376465</v>
       </c>
       <c r="G5" s="1">
-        <v>0.48075962066650391</v>
+        <v>0.66915106773376465</v>
       </c>
       <c r="H5" s="1">
-        <v>0.55803775787353516</v>
+        <v>0.66915106773376465</v>
       </c>
       <c r="I5" s="1">
-        <v>0.61160564422607422</v>
+        <v>0.66915106773376465</v>
       </c>
       <c r="J5" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>19657</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
+        <v>21820</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="M5" s="1">
-        <v>19657</v>
+        <v>21820</v>
       </c>
       <c r="N5" s="1">
-        <v>19657</v>
+        <v>21820</v>
       </c>
       <c r="O5" s="1">
-        <v>19657</v>
+        <v>21820</v>
       </c>
       <c r="P5" s="1">
-        <v>19657</v>
+        <v>21820</v>
       </c>
       <c r="Q5" s="1">
-        <v>19657</v>
+        <v>21820</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1570,52 +939,52 @@
         <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>2.630139017105102</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.25866542422200461</v>
+        <v>2.771483421325684</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E6" s="1">
-        <v>2.414413690567017</v>
+        <v>2.771483421325684</v>
       </c>
       <c r="F6" s="1">
-        <v>2.4571855068206792</v>
+        <v>2.771483421325684</v>
       </c>
       <c r="G6" s="1">
-        <v>2.4604299068450932</v>
+        <v>2.771483421325684</v>
       </c>
       <c r="H6" s="1">
-        <v>2.8524069786071782</v>
+        <v>2.771483421325684</v>
       </c>
       <c r="I6" s="1">
-        <v>2.9662590026855469</v>
+        <v>2.771483421325684</v>
       </c>
       <c r="J6" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>29155</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
+        <v>38551</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="M6" s="1">
-        <v>29155</v>
+        <v>38551</v>
       </c>
       <c r="N6" s="1">
-        <v>29155</v>
+        <v>38551</v>
       </c>
       <c r="O6" s="1">
-        <v>29155</v>
+        <v>38551</v>
       </c>
       <c r="P6" s="1">
-        <v>29155</v>
+        <v>38551</v>
       </c>
       <c r="Q6" s="1">
-        <v>29155</v>
+        <v>38551</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1623,52 +992,52 @@
         <v>12</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>45.809201002120972</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3.735707185185654</v>
+        <v>47.603498458862298</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E7" s="1">
-        <v>39.922655820846558</v>
+        <v>47.603498458862298</v>
       </c>
       <c r="F7" s="1">
-        <v>44.361951589584351</v>
+        <v>47.603498458862298</v>
       </c>
       <c r="G7" s="1">
-        <v>47.724409103393548</v>
+        <v>47.603498458862298</v>
       </c>
       <c r="H7" s="1">
-        <v>47.915366649627693</v>
+        <v>47.603498458862298</v>
       </c>
       <c r="I7" s="1">
-        <v>49.12162184715271</v>
+        <v>47.603498458862298</v>
       </c>
       <c r="J7" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>67883</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
+        <v>77686</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="M7" s="1">
-        <v>67883</v>
+        <v>77686</v>
       </c>
       <c r="N7" s="1">
-        <v>67883</v>
+        <v>77686</v>
       </c>
       <c r="O7" s="1">
-        <v>67883</v>
+        <v>77686</v>
       </c>
       <c r="P7" s="1">
-        <v>67883</v>
+        <v>77686</v>
       </c>
       <c r="Q7" s="1">
-        <v>67883</v>
+        <v>77686</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1676,52 +1045,52 @@
         <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>54.449846458435061</v>
-      </c>
-      <c r="D8" s="1">
-        <v>7.1358401007830468</v>
+        <v>62.122678756713867</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E8" s="1">
-        <v>47.816358327865601</v>
+        <v>62.122678756713867</v>
       </c>
       <c r="F8" s="1">
-        <v>49.416833877563477</v>
+        <v>62.122678756713867</v>
       </c>
       <c r="G8" s="1">
-        <v>50.793381929397583</v>
+        <v>62.122678756713867</v>
       </c>
       <c r="H8" s="1">
-        <v>60.773399591445923</v>
+        <v>62.122678756713867</v>
       </c>
       <c r="I8" s="1">
-        <v>63.44925856590271</v>
+        <v>62.122678756713867</v>
       </c>
       <c r="J8" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>65268</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
+        <v>76507</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="M8" s="1">
-        <v>65268</v>
+        <v>76507</v>
       </c>
       <c r="N8" s="1">
-        <v>65268</v>
+        <v>76507</v>
       </c>
       <c r="O8" s="1">
-        <v>65268</v>
+        <v>76507</v>
       </c>
       <c r="P8" s="1">
-        <v>65268</v>
+        <v>76507</v>
       </c>
       <c r="Q8" s="1">
-        <v>65268</v>
+        <v>76507</v>
       </c>
     </row>
   </sheetData>
